--- a/data/trans_orig/P51_2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P51_2-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>4997</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1883</v>
+        <v>1931</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10389</v>
+        <v>11142</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02312009547788027</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008711268579487227</v>
+        <v>0.008934261481446298</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04806756249997214</v>
+        <v>0.05155166986382696</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -763,19 +763,19 @@
         <v>6262</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2129</v>
+        <v>2256</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13404</v>
+        <v>14784</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07173281570979169</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02438951689829754</v>
+        <v>0.0258450204963876</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1535448395311127</v>
+        <v>0.1693476733415082</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -784,19 +784,19 @@
         <v>11259</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5987</v>
+        <v>5789</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20890</v>
+        <v>20929</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.037106309475015</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0197316718212284</v>
+        <v>0.01907901276413493</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06884482097127632</v>
+        <v>0.06897428533446912</v>
       </c>
     </row>
     <row r="5">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6853</v>
+        <v>7326</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02520759566626372</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07850224938603849</v>
+        <v>0.08392127368702644</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8386</v>
+        <v>7761</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007252398665610489</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02763569872984621</v>
+        <v>0.02557794207957228</v>
       </c>
     </row>
     <row r="6">
@@ -876,19 +876,19 @@
         <v>3906</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10350</v>
+        <v>9636</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01807283581653366</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004484268460126604</v>
+        <v>0.004467375257303555</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.047885410150396</v>
+        <v>0.04458143612005984</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5399</v>
+        <v>5485</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01212364190425763</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06184641067089388</v>
+        <v>0.06282617469177576</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -918,19 +918,19 @@
         <v>4965</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1921</v>
+        <v>1930</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10989</v>
+        <v>11117</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01636121180597432</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006330194373846273</v>
+        <v>0.006360615845543858</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0362142465384931</v>
+        <v>0.03663797347354814</v>
       </c>
     </row>
     <row r="7">
@@ -947,19 +947,19 @@
         <v>207231</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>200191</v>
+        <v>200112</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>212220</v>
+        <v>212086</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9588070687055861</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9262335693217334</v>
+        <v>0.9258699488439333</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9818929121836156</v>
+        <v>0.9812702194719448</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>70</v>
@@ -968,19 +968,19 @@
         <v>77779</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>68969</v>
+        <v>69183</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>82902</v>
+        <v>82703</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.890935946719687</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7900284292867877</v>
+        <v>0.7924795992289305</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9496241196683801</v>
+        <v>0.9473419868590138</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>266</v>
@@ -989,19 +989,19 @@
         <v>285010</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>274399</v>
+        <v>274496</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>291813</v>
+        <v>292406</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9392800800534002</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9043105377653854</v>
+        <v>0.9046325260153006</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9617001256164694</v>
+        <v>0.9636563350827088</v>
       </c>
     </row>
     <row r="8">
@@ -1093,19 +1093,19 @@
         <v>4057</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>992</v>
+        <v>950</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13044</v>
+        <v>12738</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02384320342384547</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005828376527096595</v>
+        <v>0.005585971580781854</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07666399963638081</v>
+        <v>0.07486441175874731</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1114,19 +1114,19 @@
         <v>3096</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>976</v>
+        <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8479</v>
+        <v>8438</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03452125565317939</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01088142658972804</v>
+        <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09452858762350838</v>
+        <v>0.09407539069963043</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -1135,19 +1135,19 @@
         <v>7153</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3077</v>
+        <v>2100</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>15492</v>
+        <v>15535</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02752914870306326</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0118401936420345</v>
+        <v>0.008080075286870497</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0596206505815069</v>
+        <v>0.05978621114205387</v>
       </c>
     </row>
     <row r="10">
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6099</v>
+        <v>5775</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01090589861898286</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03584747738895784</v>
+        <v>0.03394262247957951</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6588</v>
+        <v>6594</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007141303291397055</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02535620480826789</v>
+        <v>0.02537932011980053</v>
       </c>
     </row>
     <row r="11">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4789</v>
+        <v>5536</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005739551626898098</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02814950301059183</v>
+        <v>0.03253871290589096</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>4914</v>
+        <v>5812</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003758322019697396</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01891299605947873</v>
+        <v>0.02236795525095413</v>
       </c>
     </row>
     <row r="12">
@@ -1290,19 +1290,19 @@
         <v>163255</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>154200</v>
+        <v>155390</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>167219</v>
+        <v>167248</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9595113463302736</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9062937488382757</v>
+        <v>0.9132856577736637</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9828072646916467</v>
+        <v>0.982976274230677</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>83</v>
@@ -1311,19 +1311,19 @@
         <v>86597</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>81214</v>
+        <v>81255</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>88717</v>
+        <v>89693</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9654787443468206</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9054714123764913</v>
+        <v>0.9059246093003696</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9891185734102719</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>242</v>
@@ -1332,19 +1332,19 @@
         <v>249852</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>241585</v>
+        <v>241839</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>254842</v>
+        <v>255798</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9615712259858423</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9297549975049066</v>
+        <v>0.9307330285998178</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9807766719258749</v>
+        <v>0.9844540274665624</v>
       </c>
     </row>
     <row r="13">
@@ -1436,19 +1436,19 @@
         <v>3193</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>989</v>
+        <v>1008</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8637</v>
+        <v>8802</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01843032476643161</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0057067796627588</v>
+        <v>0.005820597720193614</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04984728856623415</v>
+        <v>0.05080127967343613</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1457,19 +1457,19 @@
         <v>3103</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8361</v>
+        <v>8210</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04893790831241613</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01538231060767443</v>
+        <v>0.01528935540842911</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1318386376131699</v>
+        <v>0.1294682418074129</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -1478,19 +1478,19 @@
         <v>6297</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2148</v>
+        <v>2117</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12645</v>
+        <v>12780</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02660456687331395</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009073728758327243</v>
+        <v>0.008946661062990774</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05342825756768351</v>
+        <v>0.05399582214095137</v>
       </c>
     </row>
     <row r="15">
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5782</v>
+        <v>5725</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01830530333251236</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09118476623131611</v>
+        <v>0.09028030118756808</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5387</v>
+        <v>5805</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.004904747078847912</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02276039647618096</v>
+        <v>0.02452663990326099</v>
       </c>
     </row>
     <row r="16">
@@ -1570,19 +1570,19 @@
         <v>2984</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8055</v>
+        <v>8419</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01722069777479289</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004813185139397939</v>
+        <v>0.00479829601648147</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04649316151098774</v>
+        <v>0.04858886472515771</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5475</v>
+        <v>5022</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0154898447350927</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08634030036452907</v>
+        <v>0.07918575824181308</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1612,19 +1612,19 @@
         <v>3966</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1034</v>
+        <v>1054</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9028</v>
+        <v>9834</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01675693073219457</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004366801217180021</v>
+        <v>0.004455103270886852</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03814418249113569</v>
+        <v>0.04154967601750398</v>
       </c>
     </row>
     <row r="17">
@@ -1641,19 +1641,19 @@
         <v>167084</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>160698</v>
+        <v>160831</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>171080</v>
+        <v>170988</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9643489774587755</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9274896914750941</v>
+        <v>0.9282569930609894</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9874141497861783</v>
+        <v>0.9868838102236897</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>56</v>
@@ -1662,19 +1662,19 @@
         <v>58168</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>52185</v>
+        <v>51597</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>61414</v>
+        <v>61392</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9172669436199788</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8229090001350753</v>
+        <v>0.8136462867753248</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9684516357324198</v>
+        <v>0.968096090942015</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>214</v>
@@ -1683,19 +1683,19 @@
         <v>225253</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>217284</v>
+        <v>217292</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>230566</v>
+        <v>230946</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9517337553156435</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9180665447796326</v>
+        <v>0.9180999624017349</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.974185475129861</v>
+        <v>0.9757906033044632</v>
       </c>
     </row>
     <row r="18">
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11461</v>
+        <v>12545</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02583054498984878</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0888479543840802</v>
+        <v>0.09724952228676352</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8923</v>
+        <v>8768</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03943265474339343</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1885404585585284</v>
+        <v>0.1852615816075561</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1829,19 +1829,19 @@
         <v>5198</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1152</v>
+        <v>1129</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15131</v>
+        <v>13273</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02948160241283971</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006534590235154813</v>
+        <v>0.006404331238543943</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08581506637622316</v>
+        <v>0.07527887705129789</v>
       </c>
     </row>
     <row r="20">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4594</v>
+        <v>5630</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007263990595054171</v>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0356163518107868</v>
+        <v>0.04364433513964958</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5514</v>
+        <v>4767</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005314201388589524</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03127292219545811</v>
+        <v>0.02703700285998066</v>
       </c>
     </row>
     <row r="21">
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4895</v>
+        <v>5113</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.006797882997643842</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03794437759979496</v>
+        <v>0.03963448982749822</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4320</v>
+        <v>4896</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.004973205677075718</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02450278486720356</v>
+        <v>0.02776917483231178</v>
       </c>
     </row>
     <row r="22">
@@ -1984,19 +1984,19 @@
         <v>123848</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>116159</v>
+        <v>115600</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>127209</v>
+        <v>127795</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9601075814174532</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9004977064570406</v>
+        <v>0.8961634963906343</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9861603178486295</v>
+        <v>0.9907019548181322</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -2005,7 +2005,7 @@
         <v>45462</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38405</v>
+        <v>38560</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>47328</v>
@@ -2014,7 +2014,7 @@
         <v>0.9605673452566066</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8114595414414723</v>
+        <v>0.8147384183924439</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -2026,19 +2026,19 @@
         <v>169310</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>159310</v>
+        <v>159620</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>174171</v>
+        <v>174082</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9602309905214951</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9035166624855303</v>
+        <v>0.9052754606830629</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9878022138192285</v>
+        <v>0.9872954876434108</v>
       </c>
     </row>
     <row r="23">
@@ -2130,19 +2130,19 @@
         <v>15579</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8441</v>
+        <v>8659</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26555</v>
+        <v>26685</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0226264553378309</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01225996112976142</v>
+        <v>0.01257630443501665</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0385674116270908</v>
+        <v>0.03875631176183834</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -2151,19 +2151,19 @@
         <v>14328</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7236</v>
+        <v>7256</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24112</v>
+        <v>23652</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04979655523020632</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0251478819277734</v>
+        <v>0.02521838021995134</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08379868199864487</v>
+        <v>0.08220178155579326</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>25</v>
@@ -2172,19 +2172,19 @@
         <v>29907</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>19004</v>
+        <v>19363</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>42728</v>
+        <v>43950</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03063431207663798</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01946563354719854</v>
+        <v>0.01983387413733709</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04376660413908399</v>
+        <v>0.04501847008067079</v>
       </c>
     </row>
     <row r="25">
@@ -2201,19 +2201,19 @@
         <v>2793</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7446</v>
+        <v>7518</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004055848292234259</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001272031134861771</v>
+        <v>0.001264226397087873</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01081502058504549</v>
+        <v>0.01091905488049276</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2222,19 +2222,19 @@
         <v>3361</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9169</v>
+        <v>8307</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01168243998147346</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00351618705098789</v>
+        <v>0.003498379142848106</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03186756505249355</v>
+        <v>0.02886907469240194</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -2243,19 +2243,19 @@
         <v>6154</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2811</v>
+        <v>2329</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13067</v>
+        <v>12755</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006303637365322749</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002879694779431563</v>
+        <v>0.002385687876586233</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01338495356277667</v>
+        <v>0.01306489111327556</v>
       </c>
     </row>
     <row r="26">
@@ -2272,19 +2272,19 @@
         <v>8743</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3899</v>
+        <v>4225</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15875</v>
+        <v>15965</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01269839583415103</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005663296331928364</v>
+        <v>0.006136016220096716</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02305610580544036</v>
+        <v>0.02318650263062628</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7156</v>
+        <v>7183</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.007092215266974527</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02486838636580882</v>
+        <v>0.02496340159747462</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -2314,19 +2314,19 @@
         <v>10784</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5038</v>
+        <v>5955</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18648</v>
+        <v>19411</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01104608351245685</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005160269174755494</v>
+        <v>0.006099874835092793</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01910090754527891</v>
+        <v>0.01988313969080673</v>
       </c>
     </row>
     <row r="27">
@@ -2343,19 +2343,19 @@
         <v>661418</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>649071</v>
+        <v>649368</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>670477</v>
+        <v>670427</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9606193005357838</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9426864491823547</v>
+        <v>0.9431178385170575</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9737759180426189</v>
+        <v>0.9737041389126725</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>253</v>
@@ -2364,19 +2364,19 @@
         <v>268006</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>256741</v>
+        <v>257243</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>276099</v>
+        <v>276184</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9314287895213457</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8922808584963461</v>
+        <v>0.8940249168712037</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9595556729352617</v>
+        <v>0.9598519512837533</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>882</v>
@@ -2385,19 +2385,19 @@
         <v>929424</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>914016</v>
+        <v>914084</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>942306</v>
+        <v>942511</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9520159670455824</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9362335146480889</v>
+        <v>0.9363037202331821</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9652115902549776</v>
+        <v>0.9654211163039714</v>
       </c>
     </row>
     <row r="28">
@@ -2729,19 +2729,19 @@
         <v>5111</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1934</v>
+        <v>2006</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11040</v>
+        <v>12095</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02222207516676753</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008409694585477282</v>
+        <v>0.008719292956064948</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04799860634865774</v>
+        <v>0.05258506739024163</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -2750,19 +2750,19 @@
         <v>6521</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2701</v>
+        <v>2214</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13378</v>
+        <v>13970</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05282477965492925</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02187739130430731</v>
+        <v>0.01793741530781686</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.108368923303734</v>
+        <v>0.1131618054270835</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -2771,19 +2771,19 @@
         <v>11633</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5940</v>
+        <v>6340</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19554</v>
+        <v>20247</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03291042865156821</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01680558615191455</v>
+        <v>0.01793609677301438</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05532241466449333</v>
+        <v>0.05728301672770925</v>
       </c>
     </row>
     <row r="5">
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6315</v>
+        <v>6431</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.004847654287245005</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02745375340008728</v>
+        <v>0.02795934931587749</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5670</v>
+        <v>5615</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003154554168782353</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01604082539425179</v>
+        <v>0.0158855931053014</v>
       </c>
     </row>
     <row r="6">
@@ -2866,16 +2866,16 @@
         <v>920</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8368</v>
+        <v>8690</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01299804754057671</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004000759455278717</v>
+        <v>0.004000120866795615</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03638127537195916</v>
+        <v>0.03778038539331431</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -2884,19 +2884,19 @@
         <v>2854</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7785</v>
+        <v>7751</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02311508075879608</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007240778667365218</v>
+        <v>0.007232029921762181</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06306117368154117</v>
+        <v>0.06278330893775401</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -2905,19 +2905,19 @@
         <v>5843</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2032</v>
+        <v>2010</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12567</v>
+        <v>11869</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01653154005577679</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005747805487266409</v>
+        <v>0.00568698999151221</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03555431549630526</v>
+        <v>0.03357877414027754</v>
       </c>
     </row>
     <row r="7">
@@ -2934,19 +2934,19 @@
         <v>220795</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>213294</v>
+        <v>212352</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>225871</v>
+        <v>225051</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9599322230054107</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9273195338801553</v>
+        <v>0.923223395569538</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9820018786691495</v>
+        <v>0.9784357439657477</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>113</v>
@@ -2955,19 +2955,19 @@
         <v>114075</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>105256</v>
+        <v>106567</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>118516</v>
+        <v>118778</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9240601395862746</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.852622630425464</v>
+        <v>0.8632433091191728</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9600284078453041</v>
+        <v>0.9621512758964432</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>313</v>
@@ -2976,19 +2976,19 @@
         <v>334870</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>325102</v>
+        <v>324370</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>342022</v>
+        <v>341935</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9474034771238726</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9197686449463791</v>
+        <v>0.9176968902898153</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9676359449346376</v>
+        <v>0.9673903030397686</v>
       </c>
     </row>
     <row r="8">
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7195</v>
+        <v>6687</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.009975581241264643</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03575717975132163</v>
+        <v>0.03323362488064298</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -3101,19 +3101,19 @@
         <v>6769</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2874</v>
+        <v>3007</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12899</v>
+        <v>12960</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0616558376335276</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02617903392703622</v>
+        <v>0.02738678639745194</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1174974910069802</v>
+        <v>0.1180468615017578</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -3122,19 +3122,19 @@
         <v>8776</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4057</v>
+        <v>3959</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>15958</v>
+        <v>16082</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02821828154096818</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01304392466884106</v>
+        <v>0.01272941977753146</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05130958255553782</v>
+        <v>0.05170950488398077</v>
       </c>
     </row>
     <row r="10">
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5731</v>
+        <v>4681</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008463998146971062</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05220715716598599</v>
+        <v>0.04263776735115528</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5206</v>
+        <v>4696</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002987720888233737</v>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01673929636681456</v>
+        <v>0.01509864288181123</v>
       </c>
     </row>
     <row r="11">
@@ -3261,7 +3261,7 @@
         <v>199218</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>194030</v>
+        <v>194538</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>201225</v>
@@ -3270,7 +3270,7 @@
         <v>0.9900244187587354</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.96424282024868</v>
+        <v>0.9667663751193585</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -3282,19 +3282,19 @@
         <v>102085</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>95249</v>
+        <v>95140</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>106044</v>
+        <v>105973</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9298801642195014</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8676136694490626</v>
+        <v>0.8666230250893142</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9659438054278028</v>
+        <v>0.965291784067549</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>289</v>
@@ -3303,19 +3303,19 @@
         <v>301303</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>293452</v>
+        <v>293507</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>306212</v>
+        <v>306203</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9687939975707981</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9435524495066046</v>
+        <v>0.9437272545147332</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9845781096883689</v>
+        <v>0.9845518266387695</v>
       </c>
     </row>
     <row r="13">
@@ -3407,19 +3407,19 @@
         <v>3566</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10193</v>
+        <v>9870</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02144194631190407</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005736959950856908</v>
+        <v>0.005716748567062569</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06129730493389712</v>
+        <v>0.05935395616964625</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -3441,19 +3441,19 @@
         <v>3566</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9678</v>
+        <v>11427</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01489332573277928</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003975305368020734</v>
+        <v>0.00398774854923563</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04042199245771789</v>
+        <v>0.04773007793907705</v>
       </c>
     </row>
     <row r="15">
@@ -3517,19 +3517,19 @@
         <v>3711</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1103</v>
+        <v>1110</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9891</v>
+        <v>10099</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02231694507331757</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006633383590901713</v>
+        <v>0.006675147612827743</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05947931110223529</v>
+        <v>0.06073154358055364</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>3711</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10375</v>
+        <v>9816</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01550108966334536</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004679896694320874</v>
+        <v>0.004652669304811767</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04333585108376287</v>
+        <v>0.04100113801252619</v>
       </c>
     </row>
     <row r="17">
@@ -3580,19 +3580,19 @@
         <v>159018</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>151855</v>
+        <v>151320</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>163718</v>
+        <v>163228</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9562411086147784</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9131664139961442</v>
+        <v>0.9099515712322485</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.984502276964938</v>
+        <v>0.9815555778263311</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>74</v>
@@ -3614,19 +3614,19 @@
         <v>232138</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>224285</v>
+        <v>224297</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>236127</v>
+        <v>236373</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9696055846038754</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9368062239327295</v>
+        <v>0.936856241134614</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9862679433022469</v>
+        <v>0.9872956863747776</v>
       </c>
     </row>
     <row r="18">
@@ -3718,19 +3718,19 @@
         <v>4775</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1874</v>
+        <v>1796</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10692</v>
+        <v>10570</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03966184330769999</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01556832086849163</v>
+        <v>0.01492177148347018</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.088807052497145</v>
+        <v>0.08779529774249015</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5661</v>
+        <v>6425</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02850109868689885</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08742811819882867</v>
+        <v>0.09921479525127509</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -3760,19 +3760,19 @@
         <v>6621</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2794</v>
+        <v>2770</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13559</v>
+        <v>12865</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0357584431639341</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01509156179732706</v>
+        <v>0.01496098425774175</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07323443376235265</v>
+        <v>0.06948297888154284</v>
       </c>
     </row>
     <row r="20">
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5260</v>
+        <v>5010</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01537778223714855</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08122425541165475</v>
+        <v>0.07736914393863227</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4118</v>
+        <v>5839</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.005378282492317912</v>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0222438492385477</v>
+        <v>0.03153613582579468</v>
       </c>
     </row>
     <row r="22">
@@ -3899,19 +3899,19 @@
         <v>115619</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>109702</v>
+        <v>109824</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>118520</v>
+        <v>118598</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9603381566923</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9111929475028551</v>
+        <v>0.9122047022575107</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9844316791315084</v>
+        <v>0.9850782285165298</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>59</v>
@@ -3920,19 +3920,19 @@
         <v>61913</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>56962</v>
+        <v>57043</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>63854</v>
+        <v>63853</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9561211190759527</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8796618757807504</v>
+        <v>0.8809182756300994</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9860961580618042</v>
+        <v>0.9860839667659886</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>165</v>
@@ -3941,19 +3941,19 @@
         <v>177532</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>170496</v>
+        <v>171077</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>181568</v>
+        <v>181607</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.958863274343748</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9208606659293762</v>
+        <v>0.9239994682049254</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9806621471692613</v>
+        <v>0.9808721187952515</v>
       </c>
     </row>
     <row r="23">
@@ -4045,19 +4045,19 @@
         <v>15459</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9152</v>
+        <v>8790</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25178</v>
+        <v>24877</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02153343696529415</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01274776412117394</v>
+        <v>0.01224310304276822</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03506990554754798</v>
+        <v>0.03465197247358325</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>15</v>
@@ -4066,19 +4066,19 @@
         <v>15136</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8518</v>
+        <v>8285</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23981</v>
+        <v>25037</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04078484117717959</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02295364968821854</v>
+        <v>0.02232445119182053</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06462110806889715</v>
+        <v>0.06746677061367889</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>30</v>
@@ -4087,19 +4087,19 @@
         <v>30595</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>21026</v>
+        <v>21032</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>43945</v>
+        <v>43308</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02809371465112877</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01930658243214057</v>
+        <v>0.01931283968548857</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0403520119416226</v>
+        <v>0.03976695701805116</v>
       </c>
     </row>
     <row r="25">
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5577</v>
+        <v>6698</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.001553105381634991</v>
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.007768030612128774</v>
+        <v>0.009329107840258572</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4939</v>
+        <v>5497</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.002503865902399354</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01330791578598149</v>
+        <v>0.01481329954052229</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7459</v>
+        <v>6646</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001877094892233506</v>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.006849105580999062</v>
+        <v>0.006102692704229941</v>
       </c>
     </row>
     <row r="26">
@@ -4187,19 +4187,19 @@
         <v>6701</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2373</v>
+        <v>2567</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14568</v>
+        <v>13649</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009333693406783045</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003304692594482635</v>
+        <v>0.003575816675737855</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02029188632501453</v>
+        <v>0.01901171456583121</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -4208,19 +4208,19 @@
         <v>3849</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9751</v>
+        <v>8903</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01037256743198042</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002678201704657663</v>
+        <v>0.002664311752428165</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02627443916318788</v>
+        <v>0.02398951577094148</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -4229,19 +4229,19 @@
         <v>10550</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5074</v>
+        <v>5750</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18107</v>
+        <v>19188</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00968770924951767</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004659591733818521</v>
+        <v>0.00527948536861401</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01662701710615378</v>
+        <v>0.01761957526897986</v>
       </c>
     </row>
     <row r="27">
@@ -4258,19 +4258,19 @@
         <v>694649</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>683064</v>
+        <v>684046</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>702474</v>
+        <v>703108</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9675797642462878</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9514438048040583</v>
+        <v>0.9528105224529375</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9784793633079988</v>
+        <v>0.9793629490602727</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>348</v>
@@ -4279,19 +4279,19 @@
         <v>351194</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>341228</v>
+        <v>341956</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>358901</v>
+        <v>358907</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9463387254884407</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.91948518277821</v>
+        <v>0.9214464586472779</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9671056458100145</v>
+        <v>0.967122324480654</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>989</v>
@@ -4300,19 +4300,19 @@
         <v>1045844</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1030956</v>
+        <v>1030967</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1057333</v>
+        <v>1057116</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.96034148120712</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9466708891495207</v>
+        <v>0.9466808854660129</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9708911772445888</v>
+        <v>0.9706923558589633</v>
       </c>
     </row>
     <row r="28">
